--- a/data/trans_bre/P24_4_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P24_4_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,64</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,6</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,33</t>
+          <t>14,48</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>305,49%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>194,91%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>127,98%</t>
+          <t>156,29%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>41,15%</t>
+          <t>83,72%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>69,23%</t>
+          <t>65,37%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>53,65%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>142,95%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,11; 11,38</t>
+          <t>-0,98; 12,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 11,28</t>
+          <t>-2,16; 9,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,06; 11,69</t>
+          <t>-1,02; 8,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 8,26</t>
+          <t>-1,05; 9,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 12,09</t>
+          <t>5,12; 24,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>68,46; 992,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,78; 694,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>36,29; 331,97</t>
+          <t>-45,36; 1000,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-23,53; 156,78</t>
+          <t>-46,85; 562,33</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,13; 189,32</t>
+          <t>-15,64; 216,04</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-12,53; 169,43</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>27,25; 404,24</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,65</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>6,14</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,51</t>
+          <t>6,72</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,83</t>
+          <t>9,35</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>152,87%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>245,56%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>159,77%</t>
+          <t>139,01%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>229,15%</t>
+          <t>207,68%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>124,76%</t>
+          <t>171,83%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>222,72%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>160,17%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,4; 5,49</t>
+          <t>-0,09; 5,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,22; 8,66</t>
+          <t>2,69; 10,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,0; 8,2</t>
+          <t>3,39; 9,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,81; 9,43</t>
+          <t>4,31; 10,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,54; 11,97</t>
+          <t>5,23; 13,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,56; 374,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>89,03; 571,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>61,58; 325,11</t>
+          <t>-20,98; 744,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>96,62; 464,04</t>
+          <t>46,79; 611,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>34,23; 258,54</t>
+          <t>62,77; 402,81</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>94,79; 493,89</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>62,28; 343,25</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,42</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>86,6%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>25,02%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>48,67%</t>
+          <t>101,61%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>194,25%</t>
+          <t>-23,56%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>287,89%</t>
+          <t>11,03%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>177,49%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>15,52%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +1066,79 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 4,0</t>
+          <t>-1,09; 4,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 2,64</t>
+          <t>-7,59; 1,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 3,49</t>
+          <t>-4,16; 2,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 6,38</t>
+          <t>1,31; 5,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 9,31</t>
+          <t>-6,26; 6,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,09; 387,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-64,8; 201,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-58,03; 263,53</t>
+          <t>-53,32; 778,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>38,82; 544,51</t>
+          <t>-86,75; 144,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>39,15; 1478,95</t>
+          <t>-70,7; 148,69</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>29,16; 494,62</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-51,01; 163,67</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>6,74</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>8,26</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,84</t>
+          <t>9,89</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>179,25%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>168,99%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>128,78%</t>
+          <t>209,76%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>135,94%</t>
+          <t>451,77%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>110,62%</t>
+          <t>266,89%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>281,37%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,252 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,58</t>
+          <t>3,04; 7,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,36; 6,18</t>
+          <t>4,17; 9,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,04; 6,33</t>
+          <t>4,79; 12,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,34; 7,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,63; 9,37</t>
+          <t>5,95; 14,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>88,18; 323,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>52,15; 310,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>64,93; 221,61</t>
+          <t>99,78; 458,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>63,15; 236,44</t>
+          <t>152,85; 1172,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>43,4; 181,14</t>
+          <t>89,59; 682,67</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>95,67; 624,4</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4,01</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,59</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,74</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5,31</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8,69</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>180,07%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>179,83%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>126,09%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>139,7%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>144,8%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2,65; 5,53</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,73; 6,63</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,88; 6,44</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3,34; 7,29</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5,66; 11,41</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>86,05; 320,12</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>68,34; 365,51</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>59,47; 218,84</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>60,51; 233,07</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>70,92; 232,69</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
